--- a/Groups_Algorithms.xlsx
+++ b/Groups_Algorithms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto Fapespa Resque\artigo_marcador\marcadores\Analise_qualitativa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631fab7c83f2505c/Documentos/GitHub/Artificial_markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DB07114C-5BA3-47B4-BEC0-CDEB744A45AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:9_{DB07114C-5BA3-47B4-BEC0-CDEB744A45AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25B7F703-8977-4095-83A1-73AD07308F72}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11244" xr2:uid="{DD3FA930-1BBD-455D-9750-49BB3B83D026}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD3FA930-1BBD-455D-9750-49BB3B83D026}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups_Algorithms" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="97">
   <si>
     <t>Identification</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>\cite{birdalyesnoyesyesx}</t>
+  </si>
+  <si>
+    <t>\cite{li2017aircode}</t>
+  </si>
+  <si>
+    <t>\cite{willis2013infrastructs}</t>
   </si>
 </sst>
 </file>
@@ -857,6 +863,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1174,15 +1184,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26106EB-D3CB-4B0E-86A2-476869F72FD6}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3186,6 +3202,52 @@
         <v>9</v>
       </c>
     </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
